--- a/check/src/main/webapp/file/成本导入模板.xlsx
+++ b/check/src/main/webapp/file/成本导入模板.xlsx
@@ -10,7 +10,7 @@
     <sheet name="数据推送" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据推送!$A$2:$Y$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据推送!$A$2:$V$91</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,57 +193,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-5-15从站点交接</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>多嘉米</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>791133</t>
   </si>
   <si>
     <t>条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属区部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -303,26 +263,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>东莞何生</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>东部大区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>快运</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>科博</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>509844</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -336,6 +276,10 @@
   </si>
   <si>
     <t>你们定义好的时间格式，和处理量格式，请不要修改，谢谢！！！！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -386,13 +330,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -430,6 +367,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -457,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -480,6 +426,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -492,55 +447,53 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -548,17 +501,7 @@
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="千位分隔 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -869,391 +812,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y123"/>
+  <dimension ref="A1:W123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="7"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="7" customWidth="1"/>
-    <col min="10" max="11" width="10" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="7" customWidth="1"/>
-    <col min="13" max="14" width="12" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="12.125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="11" style="7" customWidth="1"/>
-    <col min="22" max="22" width="11.25" style="7" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="11.5" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11.625" style="7" customWidth="1"/>
-    <col min="26" max="27" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.875" style="7"/>
+    <col min="1" max="1" width="14.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="10" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="5" customWidth="1"/>
+    <col min="10" max="11" width="12" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="12.125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="11" style="5" customWidth="1"/>
+    <col min="19" max="19" width="11.25" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="5" customWidth="1"/>
+    <col min="23" max="24" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
+    <row r="1" spans="1:23" ht="16.5">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="16" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="S1" s="14"/>
+      <c r="T1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="12" t="s">
+      <c r="U1" s="14"/>
+      <c r="V1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12" t="s">
+      <c r="W1" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="33">
+      <c r="A2" s="16"/>
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="14" t="s">
+      <c r="O2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="12"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="11">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.7708333333333333E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.7708333333333333E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="33">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="14"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.5">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="1:25" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2.013888888888889E-2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.7708333333333333E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1.7708333333333333E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:25" ht="16.5">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>6.18055555555556E-2</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.14513888888888901</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>5.9374999999999997E-2</v>
       </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1276,13 +1184,10 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" ht="16.5">
-      <c r="A7" s="18" t="s">
-        <v>27</v>
+    </row>
+    <row r="7" spans="1:23" ht="16.5">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -1305,13 +1210,10 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:25" ht="16.5">
-      <c r="A8" s="18" t="s">
-        <v>28</v>
+    </row>
+    <row r="8" spans="1:23" ht="16.5">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -1334,11 +1236,8 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:25">
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1361,11 +1260,8 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:25">
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1388,11 +1284,8 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25">
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1415,11 +1308,8 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25">
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1442,11 +1332,8 @@
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:25">
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1469,11 +1356,8 @@
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25">
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1496,11 +1380,8 @@
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25">
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1523,11 +1404,8 @@
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25">
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1550,11 +1428,8 @@
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1577,11 +1452,8 @@
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-    </row>
-    <row r="18" spans="1:25">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1604,11 +1476,8 @@
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-    </row>
-    <row r="19" spans="1:25">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1631,11 +1500,8 @@
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-    </row>
-    <row r="20" spans="1:25">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1658,11 +1524,8 @@
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-    </row>
-    <row r="21" spans="1:25">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1685,11 +1548,8 @@
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-    </row>
-    <row r="22" spans="1:25">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1712,11 +1572,8 @@
       <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-    </row>
-    <row r="23" spans="1:25">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1739,11 +1596,8 @@
       <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-    </row>
-    <row r="24" spans="1:25">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1766,11 +1620,8 @@
       <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-    </row>
-    <row r="25" spans="1:25">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1793,11 +1644,8 @@
       <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-    </row>
-    <row r="26" spans="1:25">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1820,11 +1668,8 @@
       <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-    </row>
-    <row r="27" spans="1:25">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1847,11 +1692,8 @@
       <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-    </row>
-    <row r="28" spans="1:25">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1874,11 +1716,8 @@
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-    </row>
-    <row r="29" spans="1:25">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1901,11 +1740,8 @@
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-    </row>
-    <row r="30" spans="1:25">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1928,11 +1764,8 @@
       <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-    </row>
-    <row r="31" spans="1:25">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1955,11 +1788,8 @@
       <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-    </row>
-    <row r="32" spans="1:25">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1982,11 +1812,8 @@
       <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-    </row>
-    <row r="33" spans="1:25">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2009,11 +1836,8 @@
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-    </row>
-    <row r="34" spans="1:25">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2036,11 +1860,8 @@
       <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-    </row>
-    <row r="35" spans="1:25">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2063,11 +1884,8 @@
       <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-    </row>
-    <row r="36" spans="1:25">
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2090,11 +1908,8 @@
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-    </row>
-    <row r="37" spans="1:25">
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2117,11 +1932,8 @@
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-    </row>
-    <row r="38" spans="1:25">
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2144,11 +1956,8 @@
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-    </row>
-    <row r="39" spans="1:25">
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2171,11 +1980,8 @@
       <c r="T39"/>
       <c r="U39"/>
       <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="40" spans="1:22" ht="15.6" customHeight="1">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2198,11 +2004,8 @@
       <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="41" spans="1:22" ht="15.6" customHeight="1">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2225,11 +2028,8 @@
       <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="42" spans="1:22" ht="15.6" customHeight="1">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2252,11 +2052,8 @@
       <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-    </row>
-    <row r="43" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="43" spans="1:22" ht="15.6" customHeight="1">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2279,11 +2076,8 @@
       <c r="T43"/>
       <c r="U43"/>
       <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-    </row>
-    <row r="44" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="44" spans="1:22" ht="15.6" customHeight="1">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2306,11 +2100,8 @@
       <c r="T44"/>
       <c r="U44"/>
       <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-    </row>
-    <row r="45" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="45" spans="1:22" ht="15.6" customHeight="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2333,11 +2124,8 @@
       <c r="T45"/>
       <c r="U45"/>
       <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-    </row>
-    <row r="46" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="46" spans="1:22" ht="15.6" customHeight="1">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2360,11 +2148,8 @@
       <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-    </row>
-    <row r="47" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="47" spans="1:22" ht="15.6" customHeight="1">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2387,11 +2172,8 @@
       <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="48" spans="1:22" ht="15.6" customHeight="1">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2414,11 +2196,8 @@
       <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-    </row>
-    <row r="49" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="49" spans="1:22" ht="15.6" customHeight="1">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2441,11 +2220,8 @@
       <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-    </row>
-    <row r="50" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="50" spans="1:22" ht="15.6" customHeight="1">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -2468,11 +2244,8 @@
       <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-    </row>
-    <row r="51" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="51" spans="1:22" ht="15.6" customHeight="1">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -2495,11 +2268,8 @@
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-    </row>
-    <row r="52" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="52" spans="1:22" ht="15.6" customHeight="1">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -2522,11 +2292,8 @@
       <c r="T52"/>
       <c r="U52"/>
       <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-    </row>
-    <row r="53" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="53" spans="1:22" ht="15.6" customHeight="1">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -2549,11 +2316,8 @@
       <c r="T53"/>
       <c r="U53"/>
       <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-    </row>
-    <row r="54" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="54" spans="1:22" ht="15.6" customHeight="1">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -2576,11 +2340,8 @@
       <c r="T54"/>
       <c r="U54"/>
       <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-    </row>
-    <row r="55" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="55" spans="1:22" ht="15.6" customHeight="1">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -2603,11 +2364,8 @@
       <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-    </row>
-    <row r="56" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="56" spans="1:22" ht="15.6" customHeight="1">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -2630,11 +2388,8 @@
       <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-    </row>
-    <row r="57" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="57" spans="1:22" ht="15.6" customHeight="1">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -2657,11 +2412,8 @@
       <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-    </row>
-    <row r="58" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="58" spans="1:22" ht="15.6" customHeight="1">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -2684,11 +2436,8 @@
       <c r="T58"/>
       <c r="U58"/>
       <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-    </row>
-    <row r="59" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="59" spans="1:22" ht="15.6" customHeight="1">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -2711,11 +2460,8 @@
       <c r="T59"/>
       <c r="U59"/>
       <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-    </row>
-    <row r="60" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="60" spans="1:22" ht="15.6" customHeight="1">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -2738,11 +2484,8 @@
       <c r="T60"/>
       <c r="U60"/>
       <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="61" spans="1:22" ht="15.6" customHeight="1">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -2765,11 +2508,8 @@
       <c r="T61"/>
       <c r="U61"/>
       <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-    </row>
-    <row r="62" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="62" spans="1:22" ht="15.6" customHeight="1">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -2792,11 +2532,8 @@
       <c r="T62"/>
       <c r="U62"/>
       <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-    </row>
-    <row r="63" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="63" spans="1:22" ht="15.6" customHeight="1">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -2819,11 +2556,8 @@
       <c r="T63"/>
       <c r="U63"/>
       <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-    </row>
-    <row r="64" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="64" spans="1:22" ht="15.6" customHeight="1">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -2846,11 +2580,8 @@
       <c r="T64"/>
       <c r="U64"/>
       <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-    </row>
-    <row r="65" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="65" spans="1:22" ht="15.6" customHeight="1">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -2873,11 +2604,8 @@
       <c r="T65"/>
       <c r="U65"/>
       <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-    </row>
-    <row r="66" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="66" spans="1:22" ht="15.6" customHeight="1">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2900,11 +2628,8 @@
       <c r="T66"/>
       <c r="U66"/>
       <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-    </row>
-    <row r="67" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="67" spans="1:22" ht="15.6" customHeight="1">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -2927,11 +2652,8 @@
       <c r="T67"/>
       <c r="U67"/>
       <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-    </row>
-    <row r="68" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="68" spans="1:22" ht="15.6" customHeight="1">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -2954,11 +2676,8 @@
       <c r="T68"/>
       <c r="U68"/>
       <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-    </row>
-    <row r="69" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="69" spans="1:22" ht="15.6" customHeight="1">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -2981,11 +2700,8 @@
       <c r="T69"/>
       <c r="U69"/>
       <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-    </row>
-    <row r="70" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="70" spans="1:22" ht="15.6" customHeight="1">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -3008,11 +2724,8 @@
       <c r="T70"/>
       <c r="U70"/>
       <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-    </row>
-    <row r="71" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="71" spans="1:22" ht="15.6" customHeight="1">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -3035,11 +2748,8 @@
       <c r="T71"/>
       <c r="U71"/>
       <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-    </row>
-    <row r="72" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="72" spans="1:22" ht="15.6" customHeight="1">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -3062,11 +2772,8 @@
       <c r="T72"/>
       <c r="U72"/>
       <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-    </row>
-    <row r="73" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="73" spans="1:22" ht="15.6" customHeight="1">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -3089,11 +2796,8 @@
       <c r="T73"/>
       <c r="U73"/>
       <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-    </row>
-    <row r="74" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="74" spans="1:22" ht="15.6" customHeight="1">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -3116,11 +2820,8 @@
       <c r="T74"/>
       <c r="U74"/>
       <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-    </row>
-    <row r="75" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="75" spans="1:22" ht="15.6" customHeight="1">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -3143,11 +2844,8 @@
       <c r="T75"/>
       <c r="U75"/>
       <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-    </row>
-    <row r="76" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="76" spans="1:22" ht="15.6" customHeight="1">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -3170,11 +2868,8 @@
       <c r="T76"/>
       <c r="U76"/>
       <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-    </row>
-    <row r="77" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="77" spans="1:22" ht="15.6" customHeight="1">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -3197,11 +2892,8 @@
       <c r="T77"/>
       <c r="U77"/>
       <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-    </row>
-    <row r="78" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="78" spans="1:22" ht="15.6" customHeight="1">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -3224,11 +2916,8 @@
       <c r="T78"/>
       <c r="U78"/>
       <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-    </row>
-    <row r="79" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="79" spans="1:22" ht="15.6" customHeight="1">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -3251,11 +2940,8 @@
       <c r="T79"/>
       <c r="U79"/>
       <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-    </row>
-    <row r="80" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="80" spans="1:22" ht="15.6" customHeight="1">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -3278,11 +2964,8 @@
       <c r="T80"/>
       <c r="U80"/>
       <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-    </row>
-    <row r="81" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="81" spans="1:22" ht="15.6" customHeight="1">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -3305,11 +2988,8 @@
       <c r="T81"/>
       <c r="U81"/>
       <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-    </row>
-    <row r="82" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="82" spans="1:22" ht="15.6" customHeight="1">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -3332,11 +3012,8 @@
       <c r="T82"/>
       <c r="U82"/>
       <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-    </row>
-    <row r="83" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="83" spans="1:22" ht="15.6" customHeight="1">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -3359,11 +3036,8 @@
       <c r="T83"/>
       <c r="U83"/>
       <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-    </row>
-    <row r="84" spans="1:25">
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -3386,11 +3060,8 @@
       <c r="T84"/>
       <c r="U84"/>
       <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-    </row>
-    <row r="85" spans="1:25">
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -3413,11 +3084,8 @@
       <c r="T85"/>
       <c r="U85"/>
       <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-    </row>
-    <row r="86" spans="1:25">
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -3440,11 +3108,8 @@
       <c r="T86"/>
       <c r="U86"/>
       <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-    </row>
-    <row r="87" spans="1:25">
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -3467,11 +3132,8 @@
       <c r="T87"/>
       <c r="U87"/>
       <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-    </row>
-    <row r="88" spans="1:25">
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -3494,11 +3156,8 @@
       <c r="T88"/>
       <c r="U88"/>
       <c r="V88"/>
-      <c r="W88"/>
-      <c r="X88"/>
-      <c r="Y88"/>
-    </row>
-    <row r="89" spans="1:25">
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -3521,11 +3180,8 @@
       <c r="T89"/>
       <c r="U89"/>
       <c r="V89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-    </row>
-    <row r="90" spans="1:25">
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -3548,11 +3204,8 @@
       <c r="T90"/>
       <c r="U90"/>
       <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-    </row>
-    <row r="91" spans="1:25">
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -3575,11 +3228,8 @@
       <c r="T91"/>
       <c r="U91"/>
       <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-    </row>
-    <row r="92" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="92" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -3602,11 +3252,8 @@
       <c r="T92"/>
       <c r="U92"/>
       <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-    </row>
-    <row r="93" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="93" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -3629,11 +3276,8 @@
       <c r="T93"/>
       <c r="U93"/>
       <c r="V93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-    </row>
-    <row r="94" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="94" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -3656,11 +3300,8 @@
       <c r="T94"/>
       <c r="U94"/>
       <c r="V94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-    </row>
-    <row r="95" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="95" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -3683,11 +3324,8 @@
       <c r="T95"/>
       <c r="U95"/>
       <c r="V95"/>
-      <c r="W95"/>
-      <c r="X95"/>
-      <c r="Y95"/>
-    </row>
-    <row r="96" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="96" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -3710,11 +3348,8 @@
       <c r="T96"/>
       <c r="U96"/>
       <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-    </row>
-    <row r="97" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="97" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -3737,11 +3372,8 @@
       <c r="T97"/>
       <c r="U97"/>
       <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-    </row>
-    <row r="98" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="98" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -3764,11 +3396,8 @@
       <c r="T98"/>
       <c r="U98"/>
       <c r="V98"/>
-      <c r="W98"/>
-      <c r="X98"/>
-      <c r="Y98"/>
-    </row>
-    <row r="99" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="99" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -3791,11 +3420,8 @@
       <c r="T99"/>
       <c r="U99"/>
       <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
-      <c r="Y99"/>
-    </row>
-    <row r="100" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="100" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -3818,11 +3444,8 @@
       <c r="T100"/>
       <c r="U100"/>
       <c r="V100"/>
-      <c r="W100"/>
-      <c r="X100"/>
-      <c r="Y100"/>
-    </row>
-    <row r="101" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="101" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -3845,11 +3468,8 @@
       <c r="T101"/>
       <c r="U101"/>
       <c r="V101"/>
-      <c r="W101"/>
-      <c r="X101"/>
-      <c r="Y101"/>
-    </row>
-    <row r="102" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="102" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -3872,11 +3492,8 @@
       <c r="T102"/>
       <c r="U102"/>
       <c r="V102"/>
-      <c r="W102"/>
-      <c r="X102"/>
-      <c r="Y102"/>
-    </row>
-    <row r="103" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="103" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -3899,11 +3516,8 @@
       <c r="T103"/>
       <c r="U103"/>
       <c r="V103"/>
-      <c r="W103"/>
-      <c r="X103"/>
-      <c r="Y103"/>
-    </row>
-    <row r="104" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="104" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -3926,11 +3540,8 @@
       <c r="T104"/>
       <c r="U104"/>
       <c r="V104"/>
-      <c r="W104"/>
-      <c r="X104"/>
-      <c r="Y104"/>
-    </row>
-    <row r="105" spans="1:25">
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -3953,11 +3564,8 @@
       <c r="T105"/>
       <c r="U105"/>
       <c r="V105"/>
-      <c r="W105"/>
-      <c r="X105"/>
-      <c r="Y105"/>
-    </row>
-    <row r="106" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="106" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -3980,11 +3588,8 @@
       <c r="T106"/>
       <c r="U106"/>
       <c r="V106"/>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
-    </row>
-    <row r="107" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="107" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -4007,11 +3612,8 @@
       <c r="T107"/>
       <c r="U107"/>
       <c r="V107"/>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-    </row>
-    <row r="108" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="108" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -4034,11 +3636,8 @@
       <c r="T108"/>
       <c r="U108"/>
       <c r="V108"/>
-      <c r="W108"/>
-      <c r="X108"/>
-      <c r="Y108"/>
-    </row>
-    <row r="109" spans="1:25" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="109" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -4061,11 +3660,8 @@
       <c r="T109"/>
       <c r="U109"/>
       <c r="V109"/>
-      <c r="W109"/>
-      <c r="X109"/>
-      <c r="Y109"/>
-    </row>
-    <row r="110" spans="1:25">
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -4088,11 +3684,8 @@
       <c r="T110"/>
       <c r="U110"/>
       <c r="V110"/>
-      <c r="W110"/>
-      <c r="X110"/>
-      <c r="Y110"/>
-    </row>
-    <row r="111" spans="1:25">
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -4115,11 +3708,8 @@
       <c r="T111"/>
       <c r="U111"/>
       <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
-      <c r="Y111"/>
-    </row>
-    <row r="112" spans="1:25">
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -4142,11 +3732,8 @@
       <c r="T112"/>
       <c r="U112"/>
       <c r="V112"/>
-      <c r="W112"/>
-      <c r="X112"/>
-      <c r="Y112"/>
-    </row>
-    <row r="113" spans="1:25">
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -4169,11 +3756,8 @@
       <c r="T113"/>
       <c r="U113"/>
       <c r="V113"/>
-      <c r="W113"/>
-      <c r="X113"/>
-      <c r="Y113"/>
-    </row>
-    <row r="114" spans="1:25">
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -4196,11 +3780,8 @@
       <c r="T114"/>
       <c r="U114"/>
       <c r="V114"/>
-      <c r="W114"/>
-      <c r="X114"/>
-      <c r="Y114"/>
-    </row>
-    <row r="115" spans="1:25">
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -4223,11 +3804,8 @@
       <c r="T115"/>
       <c r="U115"/>
       <c r="V115"/>
-      <c r="W115"/>
-      <c r="X115"/>
-      <c r="Y115"/>
-    </row>
-    <row r="116" spans="1:25">
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -4250,11 +3828,8 @@
       <c r="T116"/>
       <c r="U116"/>
       <c r="V116"/>
-      <c r="W116"/>
-      <c r="X116"/>
-      <c r="Y116"/>
-    </row>
-    <row r="117" spans="1:25">
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -4277,11 +3852,8 @@
       <c r="T117"/>
       <c r="U117"/>
       <c r="V117"/>
-      <c r="W117"/>
-      <c r="X117"/>
-      <c r="Y117"/>
-    </row>
-    <row r="118" spans="1:25">
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -4304,11 +3876,8 @@
       <c r="T118"/>
       <c r="U118"/>
       <c r="V118"/>
-      <c r="W118"/>
-      <c r="X118"/>
-      <c r="Y118"/>
-    </row>
-    <row r="119" spans="1:25">
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -4331,11 +3900,8 @@
       <c r="T119"/>
       <c r="U119"/>
       <c r="V119"/>
-      <c r="W119"/>
-      <c r="X119"/>
-      <c r="Y119"/>
-    </row>
-    <row r="120" spans="1:25">
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -4358,11 +3924,8 @@
       <c r="T120"/>
       <c r="U120"/>
       <c r="V120"/>
-      <c r="W120"/>
-      <c r="X120"/>
-      <c r="Y120"/>
-    </row>
-    <row r="121" spans="1:25">
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -4385,11 +3948,8 @@
       <c r="T121"/>
       <c r="U121"/>
       <c r="V121"/>
-      <c r="W121"/>
-      <c r="X121"/>
-      <c r="Y121"/>
-    </row>
-    <row r="122" spans="1:25" ht="15.6" customHeight="1">
+    </row>
+    <row r="122" spans="1:22" ht="15.6" customHeight="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -4412,11 +3972,8 @@
       <c r="T122"/>
       <c r="U122"/>
       <c r="V122"/>
-      <c r="W122"/>
-      <c r="X122"/>
-      <c r="Y122"/>
-    </row>
-    <row r="123" spans="1:25">
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -4439,37 +3996,29 @@
       <c r="T123"/>
       <c r="U123"/>
       <c r="V123"/>
-      <c r="W123"/>
-      <c r="X123"/>
-      <c r="Y123"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+  <mergeCells count="13">
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2">
     <cfRule type="duplicateValues" dxfId="0" priority="183"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hh：mm：ss" prompt="hh：mm：ss" sqref="V3:V5 P3:P5 F3:F5 X3:X5 H3:H5 R3:R5 L3:L5 J3:J5 T3:T5 N3:N5">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="hh：mm：ss" prompt="hh：mm：ss" sqref="S3:S5 M3:M5 C3:C5 U3:U5 E3:E5 O3:O5 I3:I5 G3:G5 Q3:Q5 K3:K5">
       <formula1>0</formula1>
       <formula2>0.999988425925926</formula2>
     </dataValidation>
